--- a/data/img/movie/movielist.xlsx
+++ b/data/img/movie/movielist.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="285">
   <si>
     <t>分級</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -881,12 +881,431 @@
     <t>禹鎮有著不為人知的秘密。他每天早上醒來，都會變成性别、年齡、國籍等外在特徵與前一天全然不同的人，有時是男人、有時是女人、有時年輕帥氣、有時老態龍鍾，甚至偶爾還會變成外國人…！因此禹鎮每天起床面對鏡中的自己，總是感到難以適應，甚至每天都得面對旁人截然不同的另眼對待。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>奇幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劇情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜劇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peninsula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰爭中的鬼故事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost of War</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懸疑/驚悚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在二次世界大戰最黑暗的日子裡，五名美國大兵，受命前往一座曾被納粹高級指揮官佔領的法國莊園。當他們進入這座莊園後，竟開始經歷一連串難以解釋的靈異現象，讓他們的世界變得瘋狂。這場難以脫逃的夢魘，似乎比戰爭所目睹事物都更加可怕…。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕魔網</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dreamkatcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐怖,懸疑/驚悚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓋兒是一位心理治療師，即將與男友路克結婚，但路克與前妻有個十歲的兒子，叫做喬許。為了拉近她與準繼子間的感情，她安排了一家三口的山中度假，也希望能藉此機會治療喬許每晚作噩夢的困擾。原來，喬許每晚都會夢見生母貝琪，但夢裡母親的樣貌卻變得十分可怕。某日，蓋兒和喬許在前往爬山的途中經過一間小店，店主是他們的山中鄰居露絲，喬許很喜歡店裡各式的手工「捕夢網」和「捕靈網」，喬許起心動念偷走其中一個，並在夜裡抱著入睡。
+沒想到，喬許竟不再做噩夢了。母親依然來到他的夢中，但樣貌非常溫柔，母親告訴他蓋兒是闖入者，想要毀掉他們的家庭，他必須殺死她。隔日早晨，山中小店的露絲趕來，她發現店裡有個捕夢網不見了，前去警告蓋兒和喬許，解釋說遺失的捕夢網是她孫子的遺物，他生前也會做噩夢，最終他殺死自己的父母而後自殺，她堅信，捕夢網上有邪靈藏身其中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來自深淵 深沉靈魂的黎明 4DX/MX4D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MADE IN ABYSS - Dawn of the Deep Soul 4DX/MX4D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trolls World Tour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏目友人帳劇場版：緣結空蟬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natsume Yujin-cho the Movie: Ephemeral Bond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《夏目友人帳》是「綠川幸」自2003年創作的日本漫畫作品，2008年改編為動畫後，已播映至第六季。故事描述從小就能看見妖怪的少年「夏目貴志」，自從得到祖母鈴子留下的遺物「友人帳」後，和自稱保鑣的「貓咪老師」，一起展開將名字還給妖怪們的生活。透過與妖怪接觸，夏目開始摸索自己應該前進的道路，一邊得到可以分享及幫助的朋友，一邊尋找可以守護珍貴日子的方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>極線生機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險,懸疑/驚悚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Secret Garden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改編自英國作家法蘭西絲霍森柏奈特原著小說《祕密花園》，描述描述一個女孩和二個男孩的童年友誼。祕密花園是世界上最美妙與神祕的地方，當兩個如枯萎植物般的孩子遇見了一個個性古怪的男孩，三個人如何藉著祕密花園的魔法力量，克服內心的恐懼，找到療癒身心的重生力量，再度喚回人們對生命的感動……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犬犬風塵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Los Reyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噬血達琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫羅蘭永恆花園外傳－永遠與自動手記人偶－</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Violet Evergarden - Eternity and the Auto Memory Doll -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普遍級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為了守護重要的事物，我把我的未來給賣了…
+一間盛開著白色山茶花的女子貴族學校，但看在伊莎貝拉約克（壽美菜子配音）眼中，這個以高牆隔絕外界的校園，就彷彿是「牢籠」般的存在…。這時，提供「自動手記人偶」服務的薇爾莉特伊芙加登（石川由依配音），受到約克家雇用，來到這所校園，協助她在社交圈的首次亮相能夠圓滿成功。然而這位陷入絕望的少女，似乎有一段埋藏在心中的過去。究竟，薇爾莉特將如何為她敞開心扉呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少年Pi的奇幻漂流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life of Pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>《少年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的奇幻漂流》是根據全球暢銷小說家楊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>〮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>馬泰爾所撰寫的同名小說改編而成的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>史詩奇幻鉅作，並由奧斯卡獎導演李安親自執導，是敘述一位少年在海上克服一切艱難困境獲得重生的故事。在創新的電影</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>科技的結合下，《少年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的奇幻漂流》引領所有觀眾進入一個前所未有的史詩冒險旅程，充滿啟發並觸發心弦深處的悸動，讓整個探索之旅提升至另一個全新領域，共同見證史無前例的視覺新饗宴，帶給您永難忘懷的絕妙體驗！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超能西蒙的奇幻旅程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon’s Got a Gift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來自孤兒院的男孩西蒙天生具有兩個超能力：變成任何人的外型、和傷口的極速復原。
+在一次校外教學的巧遇，西蒙與湯瑪斯、麥德琳兄妹相遇，三人一拍即合，成爲摯友。兄妹倆隨後邀請西蒙到他們山上的家中度假，分享彼此的秘密，西蒙向他們展示自己的超能力，當晚三人立下了結拜兄弟姊妹的誓約。
+隔天湯馬斯和西蒙一同開心到鄰近的森林出遊，不幸卻意外發生，最後回到家中的，是化身成湯馬斯的西蒙。
+西蒙就這樣以湯馬斯的身份在他們家長大成年……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致命窺弒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Rental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輔15級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懸疑驚悚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兩對情侶計畫在週末出遊，於是在租屋網站上租到一棟濱海豪宅。他們滿懷期待地住進這棟房子，卻在主宅側邊發現一間上鎖密室，甚至還感覺到有人無時無刻在監視著他們。不過眾人萬萬沒想到，在這棟豪宅裡面的，可能還有其他的陌生人…。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廢宅人生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relaxer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輔12級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1999年，千禧蟲危機近在眼前，一無是處的廢宅阿比宅在客廳沙發上，接受哥哥凱姆提出的各種荒謬挑戰。哥哥開出的最終大魔王挑戰——將號稱「不可能破關」的經典遊戲小精靈第256關給破關，否則不准離開沙發！但小精靈的第256關在程式設計上有著先天的漏洞，不論如何玩到最後總會當機，即便如此，阿比仍然接受了這項不可能成功的挑戰，他將拿出廢宅的毅力，窩在沙發上打電動、繼續打電動、不停打電動……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屍速列車：感染半島</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輔12級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動作,恐怖,懸疑/驚悚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4年前，從那場前所未見的災難逃脫的政錫（姜棟元 飾），被指派了無法拒絕的任務，再度重返完全遭外界孤立的朝鮮半島。政錫的任務是必須在限時內確保被指定的貨車，並逃離已成為廢墟的半島。過程中，喪失理性的631部隊和比4年前規模更大、更令人畏懼的活屍大軍們，不斷襲擊政錫一群人。
+就在危急瞬間，倖存於廢墟之地的敏晶（李貞賢 飾）一家人幫助政錫逃過危機，他們一同把握逃出半島的最後機會。回到半島的人們、苟延殘喘的倖存者以及瘋狂至極的活屍，他們將展開激烈的生死決鬥……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐怖,懸疑/驚悚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探窟家少女莉可為了找尋身為最偉大白笛探窟家的母親萊薩，與喪失記憶的機器人少年雷古深入世界上殘存的深淵大洞「阿比斯」，一路上遇到各種神祕生物與危險，甚至結伴了生骸娜娜奇同行。然而在深淵底層遇到了傳說中的白笛之一「黎明卿」及其女兒，卻莫名其妙發現了深淵與生骸的秘密……一切的陰謀水落石出……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔髮精靈唱遊世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普遍級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波比（安娜坎卓克 配音）和小布（賈斯汀提姆布萊克 配音）這次踏上一場冒險旅程，將他們帶到從所未見的世界，並且發現這世上總共有六個不同的精靈部落，他們只是其中的一個，這六個精靈部落分散在六塊不同的土地，各自專注於不同的音樂類型：放克、鄉村、電音、古典、流行與搖滾。於是他們的世界就變得更大也更響亮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arctic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一名因空難而受困在北極圈的男子，在孤立無援的情況下，為了生存必須做出抉擇，是應該留在安全的飛機殘骸內等待不知道何時會來的救援，或是冒險向未知前進，在致命的極地中找到一線生機……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祕密花園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溫馨/家庭,奇幻,劇情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紀錄片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗兒的日常伴隨滑板場的四季更迭，畫外音響起少年們的對話，道盡智利社會底層青少年無路可出的生活困境。人與犬、城市一隅與大地萬物，似乎都在這邊緣的次文化場域，找到生命的平衡與和諧。整部電影貫徹極度Chill精神，但卻在最後十分鐘堆疊出驚人高潮，生命的喜樂悲戚，也被狗狗澄澈的眼神溫柔承接。
+這對街頭小霸王引領觀眾進入”狗生“，宣告他們不只活在當下；還能勇敢地擁抱生命的一切。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Darlin'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>達琳從小跟著食人族獸女在深山中過著野蠻人的生活，某日，落單的達琳被經營的女子中途之家的主教及修女們捕獲，並試圖將其教化成為一位「好女孩」。然而，達琳天生的獸性卻沒有因為教會的洗禮而被馴化，其內心深處隱藏的黑暗祕密即將浮現。而當年扶養達琳長大成人的獸女，如今要拯救她的孩子免於「文化社會」荼毒，她將不惜任何代價，殺出一條血路……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,6 +1335,19 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="9">
@@ -980,7 +1412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1014,6 +1446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1294,16 +1727,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="D43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
@@ -2194,24 +2627,404 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
+    <row r="32" spans="1:10" ht="75" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="2">
+        <v>43770</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I33" s="2">
+        <v>43987</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="135" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="2">
+        <v>44015</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I35" s="2">
+        <v>44036</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="75" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I36" s="2">
+        <v>44036</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="105" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="I37" s="2">
+        <v>44027</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I38" s="2">
+        <v>44015</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="135" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I39" s="2">
+        <v>44006</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I40" s="2">
+        <v>43966</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I41" s="2">
+        <v>43922</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I42" s="2">
+        <v>43441</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I43" s="2">
+        <v>44015</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I44" s="2">
+        <v>44020</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="90" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I45" s="2">
+        <v>44015</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I46" s="2">
+        <v>44022</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>284</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
